--- a/Stocks/SHREECEM.xlsx
+++ b/Stocks/SHREECEM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>19116.983333333334</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>18327.614562442224</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>17777.072586993374</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>60.397729643486763</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>75.049999999999272</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>335</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.2240298507462665</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>18006.924013049655</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>65.016090406894364</v>
       </c>
       <c r="Y67">
         <v>-1.5411245034136627</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>17001.05</v>
+      </c>
+      <c r="D83">
+        <v>17665.349999999999</v>
+      </c>
+      <c r="E83">
+        <v>16960.55</v>
+      </c>
+      <c r="F83">
+        <v>17550</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>17391.966666666664</v>
+      </c>
+      <c r="H83">
+        <v>17252.275392881711</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>17578.282839924232</v>
+      </c>
+      <c r="K83">
+        <v>17028.685659432271</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>61.45638686327419</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>589.45000000000073</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>704.79999999999927</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.83633654937571134</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>17403.32716851266</v>
+      </c>
+      <c r="W83">
+        <v>17602.253417053547</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-198.92624854088717</v>
+      </c>
+      <c r="Y83">
+        <v>-162.32564683667087</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>17565.400000000001</v>
+      </c>
+      <c r="D84">
+        <v>17615.05</v>
+      </c>
+      <c r="E84">
+        <v>17000</v>
+      </c>
+      <c r="F84">
+        <v>17465</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>17360.016666666666</v>
+      </c>
+      <c r="H84">
+        <v>17306.146029774187</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>17586.453319941069</v>
+      </c>
+      <c r="K84">
+        <v>17022.311068447321</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>56.147191122869877</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>465</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>615.04999999999927</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.75603609462645405</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>17412.81529643379</v>
+      </c>
+      <c r="W84">
+        <v>17592.086497271805</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-179.27120083801492</v>
+      </c>
+      <c r="Y84">
+        <v>-165.71475763693968</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>17465</v>
+      </c>
+      <c r="D85">
+        <v>17777</v>
+      </c>
+      <c r="E85">
+        <v>17300.05</v>
+      </c>
+      <c r="F85">
+        <v>17750.05</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>17609.033333333336</v>
+      </c>
+      <c r="H85">
+        <v>17457.589681553764</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>17628.797026620832</v>
+      </c>
+      <c r="K85">
+        <v>17084.030831014585</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>67.805893634798579</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>450</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>476.95000000000073</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.94349512527518464</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V85">
+        <v>17464.6975585209</v>
+      </c>
+      <c r="W85">
+        <v>17603.787497473892</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-139.08993895299136</v>
+      </c>
+      <c r="Y85">
+        <v>-160.38979390015001</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>17744.349999999999</v>
+      </c>
+      <c r="D86">
+        <v>17849.900000000001</v>
+      </c>
+      <c r="E86">
+        <v>17505.5</v>
+      </c>
+      <c r="F86">
+        <v>17600</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>17651.8</v>
+      </c>
+      <c r="H86">
+        <v>17554.69484077688</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>17677.931020705091</v>
+      </c>
+      <c r="K86">
+        <v>17177.690646344676</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>57.710314980168164</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>94.5</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>344.40000000000146</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.27439024390243788</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>17485.513318748453</v>
+      </c>
+      <c r="W86">
+        <v>17603.506942105454</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-117.99362335700062</v>
+      </c>
+      <c r="Y86">
+        <v>-151.91055979152014</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>17817</v>
+      </c>
+      <c r="D87">
+        <v>17849.95</v>
+      </c>
+      <c r="E87">
+        <v>17600</v>
+      </c>
+      <c r="F87">
+        <v>17800</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>17749.983333333334</v>
+      </c>
+      <c r="H87">
+        <v>17652.339087055108</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>17716.157460548406</v>
+      </c>
+      <c r="K87">
+        <v>17271.537169379193</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>66.115834730251706</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>200</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>249.95000000000073</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.80016003200639896</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>17533.895885094844</v>
+      </c>
+      <c r="W87">
+        <v>17618.061983430976</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-84.166098336132563</v>
+      </c>
+      <c r="Y87">
+        <v>-138.36166750044262</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>17982</v>
+      </c>
+      <c r="D88">
+        <v>17982</v>
+      </c>
+      <c r="E88">
+        <v>17665.099999999999</v>
+      </c>
+      <c r="F88">
+        <v>17860</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>17835.7</v>
+      </c>
+      <c r="H88">
+        <v>17744.019543527553</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>17775.233580426539</v>
+      </c>
+      <c r="K88">
+        <v>17358.995576183817</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>68.466211774886048</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>194.90000000000146</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>316.90000000000146</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.61502051120227375</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>17584.065748926405</v>
+      </c>
+      <c r="W88">
+        <v>17635.983317991646</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-51.917569065240968</v>
+      </c>
+      <c r="Y88">
+        <v>-121.07284781340229</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>17949</v>
+      </c>
+      <c r="D89">
+        <v>18124.55</v>
+      </c>
+      <c r="E89">
+        <v>17700</v>
+      </c>
+      <c r="F89">
+        <v>17956.95</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>17927.166666666668</v>
+      </c>
+      <c r="H89">
+        <v>17835.593105097112</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>17852.859451442862</v>
+      </c>
+      <c r="K89">
+        <v>17434.774337031857</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>72.341280361444348</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>256.95000000000073</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>424.54999999999927</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.60522906606995919</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>17641.432556783882</v>
+      </c>
+      <c r="W89">
+        <v>17659.758627770043</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-18.32607098616063</v>
+      </c>
+      <c r="Y89">
+        <v>-100.52349244795396</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>17970</v>
+      </c>
+      <c r="D90">
+        <v>18400</v>
+      </c>
+      <c r="E90">
+        <v>17870.05</v>
+      </c>
+      <c r="F90">
+        <v>18340.5</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>18203.516666666666</v>
+      </c>
+      <c r="H90">
+        <v>18019.554885881887</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>17974.446240011115</v>
+      </c>
+      <c r="K90">
+        <v>17531.502262135888</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>82.796067031242444</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>470.45000000000073</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>529.95000000000073</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.88772525709972649</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V90">
+        <v>17748.981394201746</v>
+      </c>
+      <c r="W90">
+        <v>17710.18391460189</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>38.79747959985616</v>
+      </c>
+      <c r="Y90">
+        <v>-72.659298038391924</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD90">
+        <f t="shared" si="35"/>
+        <v>17930.45</v>
+      </c>
+      <c r="AE90">
+        <f t="shared" si="36"/>
+        <v>18072.5</v>
+      </c>
+      <c r="AF90">
+        <f t="shared" si="37"/>
+        <v>18135.05</v>
+      </c>
+      <c r="AG90">
+        <f t="shared" si="38"/>
+        <v>18197.55</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>18499.900000000001</v>
+      </c>
+      <c r="D91">
+        <v>18755.95</v>
+      </c>
+      <c r="E91">
+        <v>18329</v>
+      </c>
+      <c r="F91">
+        <v>18510.05</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>18531.666666666668</v>
+      </c>
+      <c r="H91">
+        <v>18275.610776274276</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>18148.113742230868</v>
+      </c>
+      <c r="K91">
+        <v>17708.723981661245</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>85.768542638067103</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>181.04999999999927</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>426.95000000000073</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.42405433891556144</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>17866.068872016862</v>
+      </c>
+      <c r="W91">
+        <v>17769.43325426101</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>96.635617755851854</v>
+      </c>
+      <c r="Y91">
+        <v>-38.800314879543173</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>18435.05</v>
+      </c>
+      <c r="D92">
+        <v>18800</v>
+      </c>
+      <c r="E92">
+        <v>18435.05</v>
+      </c>
+      <c r="F92">
+        <v>18700.5</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>18645.183333333334</v>
+      </c>
+      <c r="H92">
+        <v>18460.397054803805</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>18292.977355068451</v>
+      </c>
+      <c r="K92">
+        <v>17870.129763514302</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>88.546996281045637</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>265.45000000000073</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>364.95000000000073</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.72735991231675623</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>17994.442891706574</v>
+      </c>
+      <c r="W92">
+        <v>17838.401161352787</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>156.04173035378699</v>
+      </c>
+      <c r="Y92">
+        <v>0.16809416712286662</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>18739.2</v>
+      </c>
+      <c r="D93">
+        <v>18848.400000000001</v>
+      </c>
+      <c r="E93">
+        <v>18682.349999999999</v>
+      </c>
+      <c r="F93">
+        <v>18800</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>18776.916666666668</v>
+      </c>
+      <c r="H93">
+        <v>18618.656860735238</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>18416.404609497684</v>
+      </c>
+      <c r="K93">
+        <v>18050.623149400013</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>89.842113961289172</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>117.65000000000146</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>166.05000000000291</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.70852152965973736</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>18118.374754520948</v>
+      </c>
+      <c r="W93">
+        <v>17909.630704956286</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>208.74404956466242</v>
+      </c>
+      <c r="Y93">
+        <v>41.883285246630784</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>18853.55</v>
+      </c>
+      <c r="D94">
+        <v>19260</v>
+      </c>
+      <c r="E94">
+        <v>18811.25</v>
+      </c>
+      <c r="F94">
+        <v>19000</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>19023.75</v>
+      </c>
+      <c r="H94">
+        <v>18821.203430367619</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>18603.870251831533</v>
+      </c>
+      <c r="K94">
+        <v>18219.651338422231</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>92.089633048385835</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>188.75</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>448.75</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.42061281337047352</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>18254.009407671572</v>
+      </c>
+      <c r="W94">
+        <v>17990.39880088545</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>263.61060678612193</v>
+      </c>
+      <c r="Y94">
+        <v>86.228749554529017</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>19000</v>
+      </c>
+      <c r="D95">
+        <v>19178.55</v>
+      </c>
+      <c r="E95">
+        <v>18709</v>
+      </c>
+      <c r="F95">
+        <v>18782.55</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>18890.033333333336</v>
+      </c>
+      <c r="H95">
+        <v>18855.61838185048</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>18731.576862535636</v>
+      </c>
+      <c r="K95">
+        <v>18328.395485439512</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>70.799828005008081</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>73.549999999999272</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>469.54999999999927</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.15663933553402062</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>18335.323344952867</v>
+      </c>
+      <c r="W95">
+        <v>18049.076667486526</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>286.24667746634077</v>
+      </c>
+      <c r="Y95">
+        <v>126.23233513689136</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>18869</v>
+      </c>
+      <c r="D96">
+        <v>19101</v>
+      </c>
+      <c r="E96">
+        <v>18700</v>
+      </c>
+      <c r="F96">
+        <v>18800</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>18867</v>
+      </c>
+      <c r="H96">
+        <v>18861.30919092524</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>18813.670893083272</v>
+      </c>
+      <c r="K96">
+        <v>18410.974266452955</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>71.461642013930174</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>401</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.24937655860349128</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>18406.812061113964</v>
+      </c>
+      <c r="W96">
+        <v>18104.70061804308</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>302.11144307088398</v>
+      </c>
+      <c r="Y96">
+        <v>161.4081567236899</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>18601</v>
+      </c>
+      <c r="D97">
+        <v>19000</v>
+      </c>
+      <c r="E97">
+        <v>18150.349999999999</v>
+      </c>
+      <c r="F97">
+        <v>18545.099999999999</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>18565.149999999998</v>
+      </c>
+      <c r="H97">
+        <v>18713.229595462617</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>18855.077361286989</v>
+      </c>
+      <c r="K97">
+        <v>18353.057762796743</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>50.54427778037094</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>394.75</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>849.65000000000146</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.46460307185311517</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>18428.087128634892</v>
+      </c>
+      <c r="W97">
+        <v>18137.322794484335</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>290.76433415055726</v>
+      </c>
+      <c r="Y97">
+        <v>187.27939220906336</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>18680</v>
+      </c>
+      <c r="D98">
+        <v>18698</v>
+      </c>
+      <c r="E98">
+        <v>18450</v>
+      </c>
+      <c r="F98">
+        <v>18500</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>18549.333333333332</v>
+      </c>
+      <c r="H98">
+        <v>18631.281464397973</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>18820.171281000992</v>
+      </c>
+      <c r="K98">
+        <v>18374.600482175243</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>47.471151186838732</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>248</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.20161290322580644</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>18439.150647306447</v>
+      </c>
+      <c r="W98">
+        <v>18164.187772670681</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>274.96287463576664</v>
+      </c>
+      <c r="Y98">
+        <v>204.81608869440402</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>18552.25</v>
+      </c>
+      <c r="D99">
+        <v>18579.900000000001</v>
+      </c>
+      <c r="E99">
+        <v>18267.8</v>
+      </c>
+      <c r="F99">
+        <v>18450.05</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>18432.583333333332</v>
+      </c>
+      <c r="H99">
+        <v>18531.932398865654</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>18766.777663000772</v>
+      </c>
+      <c r="K99">
+        <v>18350.867041691854</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>43.785550865571658</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>182.25</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>312.10000000000218</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.58394745273950244</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>18440.827470797762</v>
+      </c>
+      <c r="W99">
+        <v>18185.362752472851</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>255.46471832491079</v>
+      </c>
+      <c r="Y99">
+        <v>214.94581462050536</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>18680</v>
+      </c>
+      <c r="D100">
+        <v>18680</v>
+      </c>
+      <c r="E100">
+        <v>18300</v>
+      </c>
+      <c r="F100">
+        <v>18300</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>18426.666666666668</v>
+      </c>
+      <c r="H100">
+        <v>18479.299532766163</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>18747.49373788949</v>
+      </c>
+      <c r="K100">
+        <v>18339.56325464922</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N100">
+        <v>33.901976889427289</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>380</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V100">
+        <v>18419.161706059644</v>
+      </c>
+      <c r="W100">
+        <v>18193.854400437824</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>225.30730562181998</v>
+      </c>
+      <c r="Y100">
+        <v>217.01811282076829</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>18499</v>
+      </c>
+      <c r="D101">
+        <v>18624.849999999999</v>
+      </c>
+      <c r="E101">
+        <v>18062.849999999999</v>
+      </c>
+      <c r="F101">
+        <v>18450</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>18379.233333333334</v>
+      </c>
+      <c r="H101">
+        <v>18429.26643304975</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>18720.239573914048</v>
+      </c>
+      <c r="K101">
+        <v>18278.071420282726</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>48.444074594027683</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>387.15000000000146</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>562</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.68887900355872145</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>18423.906058973545</v>
+      </c>
+      <c r="W101">
+        <v>18212.828148553541</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>211.07791042000463</v>
+      </c>
+      <c r="Y101">
+        <v>215.83007234061557</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>18496.95</v>
+      </c>
+      <c r="D102">
+        <v>18496.95</v>
+      </c>
+      <c r="E102">
+        <v>17505.099999999999</v>
+      </c>
+      <c r="F102">
+        <v>17800</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>17934.016666666666</v>
+      </c>
+      <c r="H102">
+        <v>18181.641549858206</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>18670.619668599815</v>
+      </c>
+      <c r="K102">
+        <v>18106.299993553232</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>22.103320076810579</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>294.90000000000146</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>991.85000000000218</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.29732318394918666</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>18327.920511439155</v>
+      </c>
+      <c r="W102">
+        <v>18182.248285697722</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>145.67222574143307</v>
+      </c>
+      <c r="Y102">
+        <v>201.79850302077907</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>17760</v>
+      </c>
+      <c r="D103">
+        <v>17832</v>
+      </c>
+      <c r="E103">
+        <v>17155.2</v>
+      </c>
+      <c r="F103">
+        <v>17561.5</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>17516.233333333334</v>
+      </c>
+      <c r="H103">
+        <v>17848.937441595772</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>18484.2597422443</v>
+      </c>
+      <c r="K103">
+        <v>17894.944439430292</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>17.691341846468024</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>406.29999999999927</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>676.79999999999927</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.60032505910165446</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>18210.009663525438</v>
+      </c>
+      <c r="W103">
+        <v>18136.266931201593</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>73.742732323844393</v>
+      </c>
+      <c r="Y103">
+        <v>176.18734888139213</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>17484.900000000001</v>
+      </c>
+      <c r="D104">
+        <v>18087.099999999999</v>
+      </c>
+      <c r="E104">
+        <v>17049</v>
+      </c>
+      <c r="F104">
+        <v>17915</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>17683.7</v>
+      </c>
+      <c r="H104">
+        <v>17766.318720797884</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>18396.002021745568</v>
+      </c>
+      <c r="K104">
+        <v>17706.95678622356</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>39.912662136267038</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>866</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>1038.0999999999985</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.83421635680570394</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>18164.623561444601</v>
+      </c>
+      <c r="W104">
+        <v>18119.876788149624</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>44.746773294977174</v>
+      </c>
+      <c r="Y104">
+        <v>149.89923376410914</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>18208</v>
+      </c>
+      <c r="D105">
+        <v>18208</v>
+      </c>
+      <c r="E105">
+        <v>17840</v>
+      </c>
+      <c r="F105">
+        <v>18021</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>18023</v>
+      </c>
+      <c r="H105">
+        <v>17894.659360398942</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J105">
+        <v>18354.223794690995</v>
+      </c>
+      <c r="K105">
+        <v>17736.521944840548</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N105">
+        <v>45.434330118148523</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>181</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>368</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.49184782608695654</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>18142.527628914664</v>
+      </c>
+      <c r="W105">
+        <v>18112.552581620021</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>29.975047294643446</v>
+      </c>
+      <c r="Y105">
+        <v>125.914396470216</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>18134</v>
+      </c>
+      <c r="D106">
+        <v>18398</v>
+      </c>
+      <c r="E106">
+        <v>17983.5</v>
+      </c>
+      <c r="F106">
+        <v>18115</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>18165.5</v>
+      </c>
+      <c r="H106">
+        <v>18030.079680199473</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>18363.951840315218</v>
+      </c>
+      <c r="K106">
+        <v>17791.405957098203</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>50.47874680353295</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>131.5</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>414.5</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.31724969843184558</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>18138.29260908164</v>
+      </c>
+      <c r="W106">
+        <v>18112.73387187039</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>25.558737211249536</v>
+      </c>
+      <c r="Y106">
+        <v>105.84326461842271</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>18150</v>
+      </c>
+      <c r="D107">
+        <v>18700</v>
+      </c>
+      <c r="E107">
+        <v>18100.099999999999</v>
+      </c>
+      <c r="F107">
+        <v>18525</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>18441.7</v>
+      </c>
+      <c r="H107">
+        <v>18235.889840099735</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>18438.629209134058</v>
+      </c>
+      <c r="K107">
+        <v>17860.004633298602</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N107">
+        <v>67.074319346914479</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>424.90000000000146</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>599.90000000000146</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.7082847141190205</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>18197.78605383831</v>
+      </c>
+      <c r="W107">
+        <v>18143.272103583695</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>54.513950254615338</v>
+      </c>
+      <c r="Y107">
+        <v>95.577401745661234</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
